--- a/biology/Médecine/Conseil_national_de_l'Ordre_des_sages-femmes/Conseil_national_de_l'Ordre_des_sages-femmes.xlsx
+++ b/biology/Médecine/Conseil_national_de_l'Ordre_des_sages-femmes/Conseil_national_de_l'Ordre_des_sages-femmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conseil_national_de_l%27Ordre_des_sages-femmes</t>
+          <t>Conseil_national_de_l'Ordre_des_sages-femmes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En France, le Conseil national de l'Ordre des sages-femmes est un organisme professionnel, administratif et juridictionnel de défense et de régulation de la profession de sage-femme.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conseil_national_de_l%27Ordre_des_sages-femmes</t>
+          <t>Conseil_national_de_l'Ordre_des_sages-femmes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auprès de l'Assemblée nationale
-Le Conseil national de l'Ordre des sages-femmes est inscrit comme représentant d'intérêts auprès de l'Assemblée nationale. Il déclare à ce titre en 2014 un budget global de 1 900 000 euros, et indique que les coûts annuels liés aux activités directes de représentation d'intérêts auprès du Parlement sont compris entre 50 000 et 100 000 euros[1].
-Auprès des institutions de l'Union européenne
-Le Conseil national de l'Ordre des sages-femmes est inscrit depuis 2011 au registre de transparence des représentants d'intérêts auprès de la Commission européenne. Il déclare en 2016 pour cette activité 1 collaborateur à temps plein et des dépenses d'un montant compris entre 50 000 et 100 000[2].
+          <t>Auprès de l'Assemblée nationale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil national de l'Ordre des sages-femmes est inscrit comme représentant d'intérêts auprès de l'Assemblée nationale. Il déclare à ce titre en 2014 un budget global de 1 900 000 euros, et indique que les coûts annuels liés aux activités directes de représentation d'intérêts auprès du Parlement sont compris entre 50 000 et 100 000 euros.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conseil_national_de_l%27Ordre_des_sages-femmes</t>
+          <t>Conseil_national_de_l'Ordre_des_sages-femmes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +558,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Activité de lobbying</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auprès des institutions de l'Union européenne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil national de l'Ordre des sages-femmes est inscrit depuis 2011 au registre de transparence des représentants d'intérêts auprès de la Commission européenne. Il déclare en 2016 pour cette activité 1 collaborateur à temps plein et des dépenses d'un montant compris entre 50 000 et 100 000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conseil_national_de_l'Ordre_des_sages-femmes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conseil_national_de_l%27Ordre_des_sages-femmes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Historique des présidentes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Marie-Josée Keller[3] (2006-2017)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marie-Josée Keller (2006-2017)
 Anne-Marie Curat (2017-2022)
-Isabelle Derrendinger (2022-)[4]</t>
+Isabelle Derrendinger (2022-)</t>
         </is>
       </c>
     </row>
